--- a/TestData/payment_to_user_testdata.xlsx
+++ b/TestData/payment_to_user_testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cyclos_project\PilotProject_Cyclos_Team1-2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B43C84-4912-477B-B310-A687B91953FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EFF131-80D7-4869-8006-E5103E6CC3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2328" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Dinesh dk</t>
   </si>
@@ -43,6 +44,9 @@
   </si>
   <si>
     <t>${amount_data}</t>
+  </si>
+  <si>
+    <t>${exceeded_amount_data}</t>
   </si>
 </sst>
 </file>
@@ -365,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,4 +398,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F002E1-76C5-4B0E-8B38-0E1B403DE97B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/payment_to_user_testdata.xlsx
+++ b/TestData/payment_to_user_testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cyclos_project\PilotProject_Cyclos_Team1-2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cyclos_project\PilotProject_Cyclos_Team1-3\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EFF131-80D7-4869-8006-E5103E6CC3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A80809-88AF-4DC9-9048-E0D46ED9B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2328" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="2328" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Dinesh dk</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>${exceeded_amount_data}</t>
+  </si>
+  <si>
+    <t>Dinesh_dk</t>
   </si>
 </sst>
 </file>
@@ -369,8 +372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +392,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -404,7 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F002E1-76C5-4B0E-8B38-0E1B403DE97B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
